--- a/Companies/Bank - Private/IndusInd Bank Ltd/Pruned_Excel/4_Jun17_Jun18.xlsx
+++ b/Companies/Bank - Private/IndusInd Bank Ltd/Pruned_Excel/4_Jun17_Jun18.xlsx
@@ -55,13 +55,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -428,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J46"/>
+  <dimension ref="A1:F46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,10 +439,6 @@
     <col width="10" customWidth="1" min="4" max="4"/>
     <col width="10" customWidth="1" min="5" max="5"/>
     <col width="10" customWidth="1" min="6" max="6"/>
-    <col width="2" customWidth="1" min="7" max="7"/>
-    <col width="9" customWidth="1" min="8" max="8"/>
-    <col width="9" customWidth="1" min="9" max="9"/>
-    <col width="19" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -456,43 +449,27 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Jun '17</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Sep '17</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Dec '17</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Mar '18</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Jun '18</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Mar '18</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Dec '17</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Sep '17</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Jun '17</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr"/>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Max</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Min</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Avg</t>
         </is>
       </c>
     </row>
@@ -512,37 +489,28 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>3,270.70</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>3,290.28</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3,469.61</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>3,669.32</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
           <t>4,146.62</t>
         </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>3,669.32</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>3,469.61</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>3,290.28</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3,270.70</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="n">
-        <v>4146.62</v>
-      </c>
-      <c r="I4" s="2" t="n">
-        <v>3270.7</v>
-      </c>
-      <c r="J4" s="2" t="n">
-        <v>3569.306</v>
       </c>
     </row>
     <row r="5">
@@ -553,37 +521,28 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>726.47</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>767.94</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>749.46</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>830.51</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
           <t>861.03</t>
         </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>830.51</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>749.46</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>767.94</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>726.47</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="n">
-        <v>861.03</v>
-      </c>
-      <c r="I5" s="2" t="n">
-        <v>726.47</v>
-      </c>
-      <c r="J5" s="2" t="n">
-        <v>787.082</v>
       </c>
     </row>
     <row r="6">
@@ -594,37 +553,28 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>98.50</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>110.80</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>36.80</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>75.37</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
           <t>18.68</t>
         </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>75.37</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>36.80</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>110.80</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>98.50</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="n">
-        <v>110.8</v>
-      </c>
-      <c r="I6" s="2" t="n">
-        <v>18.68</v>
-      </c>
-      <c r="J6" s="2" t="n">
-        <v>68.03</v>
       </c>
     </row>
     <row r="7">
@@ -635,37 +585,28 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>39.84</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>39.33</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>30.91</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>74.91</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
           <t>41.82</t>
         </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>74.91</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>30.91</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>39.33</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>39.84</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="n">
-        <v>74.91</v>
-      </c>
-      <c r="I7" s="2" t="n">
-        <v>30.91</v>
-      </c>
-      <c r="J7" s="2" t="n">
-        <v>45.362</v>
       </c>
     </row>
     <row r="8">
@@ -676,37 +617,28 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>1,167.26</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>1,187.57</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1,186.76</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>1,208.51</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
           <t>1,301.60</t>
         </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>1,208.51</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>1,186.76</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>1,187.57</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>1,167.26</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="n">
-        <v>1301.6</v>
-      </c>
-      <c r="I8" s="2" t="n">
-        <v>1167.26</v>
-      </c>
-      <c r="J8" s="2" t="n">
-        <v>1210.34</v>
       </c>
     </row>
     <row r="9"/>
@@ -725,37 +657,28 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>2,361.45</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>2,387.36</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2,391.97</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>2,642.52</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
           <t>2,945.72</t>
         </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>2,642.52</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>2,391.97</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>2,387.36</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>2,361.45</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="n">
-        <v>2945.72</v>
-      </c>
-      <c r="I11" s="2" t="n">
-        <v>2361.45</v>
-      </c>
-      <c r="J11" s="2" t="n">
-        <v>2545.804</v>
       </c>
     </row>
     <row r="12">
@@ -766,37 +689,28 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>422.17</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>445.04</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>459.96</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>453.52</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
           <t>462.04</t>
         </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>453.52</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>459.96</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>445.04</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>422.17</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="n">
-        <v>462.04</v>
-      </c>
-      <c r="I12" s="2" t="n">
-        <v>422.17</v>
-      </c>
-      <c r="J12" s="2" t="n">
-        <v>448.546</v>
       </c>
     </row>
     <row r="13">
@@ -807,37 +721,28 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>930.62</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>930.02</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>956.92</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>993.19</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
           <t>1,050.86</t>
         </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>993.19</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>956.92</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>930.02</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>930.62</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="n">
-        <v>1050.86</v>
-      </c>
-      <c r="I13" s="2" t="n">
-        <v>930.02</v>
-      </c>
-      <c r="J13" s="2" t="n">
-        <v>972.3219999999999</v>
       </c>
     </row>
     <row r="14">
@@ -848,37 +753,28 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>1,588.53</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>1,633.50</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1,664.69</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>1,769.39</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
           <t>1,911.13</t>
         </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>1,769.39</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>1,664.69</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>1,633.50</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>1,588.53</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="n">
-        <v>1911.13</v>
-      </c>
-      <c r="I14" s="2" t="n">
-        <v>1588.53</v>
-      </c>
-      <c r="J14" s="2" t="n">
-        <v>1713.448</v>
       </c>
     </row>
     <row r="15">
@@ -889,37 +785,28 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>309.97</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>293.75</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>236.16</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>335.55</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
           <t>350.01</t>
         </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>335.55</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>236.16</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>293.75</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>309.97</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="n">
-        <v>350.01</v>
-      </c>
-      <c r="I15" s="2" t="n">
-        <v>236.16</v>
-      </c>
-      <c r="J15" s="2" t="n">
-        <v>305.088</v>
       </c>
     </row>
     <row r="16">
@@ -930,37 +817,28 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t>1,278.56</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>1,339.75</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1,428.53</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>1,433.84</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
           <t>1,561.12</t>
         </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>1,433.84</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>1,428.53</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>1,339.75</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>1,278.56</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="n">
-        <v>1561.12</v>
-      </c>
-      <c r="I16" s="2" t="n">
-        <v>1278.56</v>
-      </c>
-      <c r="J16" s="2" t="n">
-        <v>1408.36</v>
       </c>
     </row>
     <row r="17">
@@ -971,37 +849,28 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
+          <t>442.01</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>459.65</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>492.28</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>480.75</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
           <t>525.40</t>
         </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>480.75</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>492.28</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>459.65</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>442.01</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="n">
-        <v>525.4</v>
-      </c>
-      <c r="I17" s="2" t="n">
-        <v>442.01</v>
-      </c>
-      <c r="J17" s="2" t="n">
-        <v>480.018</v>
       </c>
     </row>
     <row r="18">
@@ -1012,37 +881,28 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
+          <t>836.55</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>880.10</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>936.25</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>953.09</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
           <t>1,035.72</t>
         </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>953.09</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>936.25</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>880.10</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>836.55</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="n">
-        <v>1035.72</v>
-      </c>
-      <c r="I18" s="2" t="n">
-        <v>836.55</v>
-      </c>
-      <c r="J18" s="2" t="n">
-        <v>928.342</v>
       </c>
     </row>
     <row r="19">
@@ -1053,37 +913,28 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
+          <t>836.55</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>880.10</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>936.25</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>953.09</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
           <t>1,035.72</t>
         </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>953.09</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>936.25</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>880.10</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>836.55</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="n">
-        <v>1035.72</v>
-      </c>
-      <c r="I19" s="2" t="n">
-        <v>836.55</v>
-      </c>
-      <c r="J19" s="2" t="n">
-        <v>928.342</v>
       </c>
     </row>
     <row r="20">
@@ -1094,37 +945,28 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
+          <t>598.52</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>598.87</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>599.74</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>600.22</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
           <t>600.44</t>
         </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>600.22</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>599.74</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>598.87</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>598.52</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="n">
-        <v>600.4400000000001</v>
-      </c>
-      <c r="I20" s="2" t="n">
-        <v>598.52</v>
-      </c>
-      <c r="J20" s="2" t="n">
-        <v>599.558</v>
       </c>
     </row>
     <row r="21"/>
@@ -1151,37 +993,28 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
+          <t>13.98</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>14.70</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>15.62</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>15.88</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
           <t>17.25</t>
         </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>15.88</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>15.62</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>14.70</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>13.98</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="n">
-        <v>17.25</v>
-      </c>
-      <c r="I25" s="2" t="n">
-        <v>13.98</v>
-      </c>
-      <c r="J25" s="2" t="n">
-        <v>15.486</v>
       </c>
     </row>
     <row r="26">
@@ -1192,37 +1025,28 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
+          <t>13.86</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>14.54</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>15.47</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>15.73</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
           <t>17.08</t>
         </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>15.73</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>15.47</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>14.54</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>13.86</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="n">
-        <v>17.08</v>
-      </c>
-      <c r="I26" s="2" t="n">
-        <v>13.86</v>
-      </c>
-      <c r="J26" s="2" t="n">
-        <v>15.336</v>
       </c>
     </row>
     <row r="27"/>
@@ -1241,37 +1065,28 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
+          <t>13.98</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>14.70</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>15.62</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>15.88</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
           <t>17.25</t>
         </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>15.88</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>15.62</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>14.70</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>13.98</t>
-        </is>
-      </c>
-      <c r="H29" s="2" t="n">
-        <v>17.25</v>
-      </c>
-      <c r="I29" s="2" t="n">
-        <v>13.98</v>
-      </c>
-      <c r="J29" s="2" t="n">
-        <v>15.486</v>
       </c>
     </row>
     <row r="30">
@@ -1282,37 +1097,28 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
+          <t>13.86</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>14.54</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>15.47</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>15.73</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
           <t>17.08</t>
         </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>15.73</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>15.47</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>14.54</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>13.86</t>
-        </is>
-      </c>
-      <c r="H30" s="2" t="n">
-        <v>17.08</v>
-      </c>
-      <c r="I30" s="2" t="n">
-        <v>13.86</v>
-      </c>
-      <c r="J30" s="2" t="n">
-        <v>15.336</v>
       </c>
     </row>
     <row r="31"/>
@@ -1331,37 +1137,28 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
+          <t>1,271.68</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>1,345.28</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1,498.70</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>1,704.91</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
           <t>1,740.62</t>
         </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>1,704.91</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>1,498.70</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>1,345.28</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>1,271.68</t>
-        </is>
-      </c>
-      <c r="H33" s="2" t="n">
-        <v>1740.62</v>
-      </c>
-      <c r="I33" s="2" t="n">
-        <v>1271.68</v>
-      </c>
-      <c r="J33" s="2" t="n">
-        <v>1512.238</v>
       </c>
     </row>
     <row r="34">
@@ -1372,37 +1169,28 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
+          <t>508.26</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>536.89</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>592.20</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>745.67</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
           <t>762.35</t>
         </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>745.67</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>592.20</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>536.89</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>508.26</t>
-        </is>
-      </c>
-      <c r="H34" s="2" t="n">
-        <v>762.35</v>
-      </c>
-      <c r="I34" s="2" t="n">
-        <v>508.26</v>
-      </c>
-      <c r="J34" s="2" t="n">
-        <v>629.074</v>
       </c>
     </row>
     <row r="35">
@@ -1413,37 +1201,28 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
           <t>1.15</t>
         </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>1.17</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>1.16</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>1.08</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>1.09</t>
-        </is>
-      </c>
-      <c r="H35" s="2" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="I35" s="2" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="J35" s="2" t="n">
-        <v>1.13</v>
       </c>
     </row>
     <row r="36">
@@ -1454,37 +1233,28 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
           <t>0.51</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>0.51</t>
         </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>0.46</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>0.44</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>0.44</t>
-        </is>
-      </c>
-      <c r="H36" s="2" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="I36" s="2" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="J36" s="2" t="n">
-        <v>0.472</v>
       </c>
     </row>
     <row r="37">
@@ -1495,37 +1265,28 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
           <t>1.91</t>
         </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>1.86</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>1.96</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>1.90</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>1.86</t>
-        </is>
-      </c>
-      <c r="H37" s="2" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="I37" s="2" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="J37" s="2" t="n">
-        <v>1.898</v>
       </c>
     </row>
     <row r="38"/>
@@ -1568,37 +1329,28 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
+          <t>201706</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>201709</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>201712</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>201803</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
           <t>201806</t>
         </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>201803</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>201712</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>201709</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>201706</t>
-        </is>
-      </c>
-      <c r="H46" s="2" t="n">
-        <v>201806</v>
-      </c>
-      <c r="I46" s="2" t="n">
-        <v>201706</v>
-      </c>
-      <c r="J46" s="2" t="n">
-        <v>201747.2</v>
       </c>
     </row>
   </sheetData>
